--- a/data/pca/factorExposure/factorExposure_2014-12-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01527875855866923</v>
+        <v>0.01151648546695382</v>
       </c>
       <c r="C2">
-        <v>0.03272100532460304</v>
+        <v>-0.05345148427459936</v>
       </c>
       <c r="D2">
-        <v>0.1339742600184794</v>
+        <v>0.066381972258684</v>
       </c>
       <c r="E2">
-        <v>-0.1147443621065807</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.1004109701266696</v>
+      </c>
+      <c r="F2">
+        <v>-0.1495607045628508</v>
+      </c>
+      <c r="G2">
+        <v>0.05710340949935888</v>
+      </c>
+      <c r="H2">
+        <v>-0.0529492657144801</v>
+      </c>
+      <c r="I2">
+        <v>0.0397790262490803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0451196602050985</v>
+        <v>0.02113881748513876</v>
       </c>
       <c r="C4">
-        <v>0.1184209936394281</v>
+        <v>-0.1424419573227632</v>
       </c>
       <c r="D4">
-        <v>0.09939028146811328</v>
+        <v>0.02909750507757089</v>
       </c>
       <c r="E4">
-        <v>-0.0977458471577617</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.07710097163096134</v>
+      </c>
+      <c r="F4">
+        <v>-0.1071117927405172</v>
+      </c>
+      <c r="G4">
+        <v>-0.05642600557250518</v>
+      </c>
+      <c r="H4">
+        <v>0.02261143197704887</v>
+      </c>
+      <c r="I4">
+        <v>0.07826451960146409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02127255589222978</v>
+        <v>0.03006695855494535</v>
       </c>
       <c r="C6">
-        <v>0.04623655331402104</v>
+        <v>-0.05691829564079377</v>
       </c>
       <c r="D6">
-        <v>0.08208792695016204</v>
+        <v>0.03864406498103407</v>
       </c>
       <c r="E6">
-        <v>-0.03951152639065789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.08725349357751677</v>
+      </c>
+      <c r="F6">
+        <v>-0.05224511972437398</v>
+      </c>
+      <c r="G6">
+        <v>0.04178589098132358</v>
+      </c>
+      <c r="H6">
+        <v>0.04064982186126889</v>
+      </c>
+      <c r="I6">
+        <v>0.02182195210204602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.007628003108918762</v>
+        <v>0.006630957300509983</v>
       </c>
       <c r="C7">
-        <v>0.0368903583561694</v>
+        <v>-0.05419301223251168</v>
       </c>
       <c r="D7">
-        <v>0.06402415651025198</v>
+        <v>0.03496269216032652</v>
       </c>
       <c r="E7">
-        <v>-0.01673018660051771</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.07159685277680071</v>
+      </c>
+      <c r="F7">
+        <v>-0.0101520943316623</v>
+      </c>
+      <c r="G7">
+        <v>-0.01645915751528877</v>
+      </c>
+      <c r="H7">
+        <v>0.0442319443632033</v>
+      </c>
+      <c r="I7">
+        <v>0.08035515978876998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.002299111524952983</v>
+        <v>-0.006699918640663281</v>
       </c>
       <c r="C8">
-        <v>0.04965208807921779</v>
+        <v>-0.05899054785971322</v>
       </c>
       <c r="D8">
-        <v>0.08062937696331197</v>
+        <v>0.01542711447691355</v>
       </c>
       <c r="E8">
-        <v>-0.06001776554675753</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.06618395033650552</v>
+      </c>
+      <c r="F8">
+        <v>-0.08470765695262017</v>
+      </c>
+      <c r="G8">
+        <v>-0.0282117585286613</v>
+      </c>
+      <c r="H8">
+        <v>-0.05170684414392263</v>
+      </c>
+      <c r="I8">
+        <v>0.02434373953564137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02634206931797929</v>
+        <v>0.01220974404088688</v>
       </c>
       <c r="C9">
-        <v>0.09718406915277446</v>
+        <v>-0.1139836637458481</v>
       </c>
       <c r="D9">
-        <v>0.08640859107960219</v>
+        <v>0.02862966421455859</v>
       </c>
       <c r="E9">
-        <v>-0.06823565010631649</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.06539664142702345</v>
+      </c>
+      <c r="F9">
+        <v>-0.06984909182206464</v>
+      </c>
+      <c r="G9">
+        <v>-0.005538356076177926</v>
+      </c>
+      <c r="H9">
+        <v>0.03978364145900559</v>
+      </c>
+      <c r="I9">
+        <v>0.08295572439684386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.2208247642623976</v>
+        <v>0.2424088560026723</v>
       </c>
       <c r="C10">
-        <v>-0.1165646361679987</v>
+        <v>0.08486085757891128</v>
       </c>
       <c r="D10">
-        <v>-0.04352326797346383</v>
+        <v>-0.01689861839271579</v>
       </c>
       <c r="E10">
-        <v>-0.03037432436262023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.0232173127282648</v>
+      </c>
+      <c r="F10">
+        <v>-0.01254033939984569</v>
+      </c>
+      <c r="G10">
+        <v>-0.005889518857223649</v>
+      </c>
+      <c r="H10">
+        <v>0.03070483971776421</v>
+      </c>
+      <c r="I10">
+        <v>0.02646733373305472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01012385372783492</v>
+        <v>0.01225340337400646</v>
       </c>
       <c r="C11">
-        <v>0.04256225008132784</v>
+        <v>-0.06601569357841008</v>
       </c>
       <c r="D11">
-        <v>0.04731960253667857</v>
+        <v>0.0154738199780589</v>
       </c>
       <c r="E11">
-        <v>-0.009689117003636611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.05438886847172549</v>
+      </c>
+      <c r="F11">
+        <v>-0.004711944554785532</v>
+      </c>
+      <c r="G11">
+        <v>-0.01377672602871148</v>
+      </c>
+      <c r="H11">
+        <v>0.03294497870879223</v>
+      </c>
+      <c r="I11">
+        <v>0.03992326263128527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0141478333974056</v>
+        <v>0.01448144417152006</v>
       </c>
       <c r="C12">
-        <v>0.04374480095471834</v>
+        <v>-0.05548142526919639</v>
       </c>
       <c r="D12">
-        <v>0.0487713362395379</v>
+        <v>0.02202911183687997</v>
       </c>
       <c r="E12">
-        <v>-0.003884086931676552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0412587562311221</v>
+      </c>
+      <c r="F12">
+        <v>0.005891362799920534</v>
+      </c>
+      <c r="G12">
+        <v>0.01398337511671228</v>
+      </c>
+      <c r="H12">
+        <v>0.02916783453453401</v>
+      </c>
+      <c r="I12">
+        <v>0.0451102300747668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.01792370798981497</v>
+        <v>0.005125442032345169</v>
       </c>
       <c r="C13">
-        <v>0.05570758917898933</v>
+        <v>-0.09263187790622174</v>
       </c>
       <c r="D13">
-        <v>0.1274412409024534</v>
+        <v>0.07804929435089486</v>
       </c>
       <c r="E13">
-        <v>-0.03421505567479136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.1211080706858462</v>
+      </c>
+      <c r="F13">
+        <v>-0.04747421700178006</v>
+      </c>
+      <c r="G13">
+        <v>0.1076430469855427</v>
+      </c>
+      <c r="H13">
+        <v>0.03594405364580597</v>
+      </c>
+      <c r="I13">
+        <v>0.08449359414772477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003891320689773866</v>
+        <v>0.006132717063804269</v>
       </c>
       <c r="C14">
-        <v>0.021699884540551</v>
+        <v>-0.04923953071059071</v>
       </c>
       <c r="D14">
-        <v>0.05834623125562866</v>
+        <v>0.02141383708009317</v>
       </c>
       <c r="E14">
-        <v>-0.01143764845089237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.104660050627868</v>
+      </c>
+      <c r="F14">
+        <v>-0.02003930775251555</v>
+      </c>
+      <c r="G14">
+        <v>0.0368697440076205</v>
+      </c>
+      <c r="H14">
+        <v>0.0655701125263088</v>
+      </c>
+      <c r="I14">
+        <v>0.1392641219489591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001112917255996515</v>
+        <v>-0.003893556127242326</v>
       </c>
       <c r="C15">
-        <v>0.0263011371696688</v>
+        <v>-0.04877101933963679</v>
       </c>
       <c r="D15">
-        <v>0.07636333769000798</v>
+        <v>0.03221005657350824</v>
       </c>
       <c r="E15">
-        <v>-0.03954997782592066</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.0763777917919673</v>
+      </c>
+      <c r="F15">
+        <v>-0.01817935360700403</v>
+      </c>
+      <c r="G15">
+        <v>-0.007593781032075962</v>
+      </c>
+      <c r="H15">
+        <v>0.006395595855954971</v>
+      </c>
+      <c r="I15">
+        <v>0.0560704143258843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.009402858657655472</v>
+        <v>0.01091943110889566</v>
       </c>
       <c r="C16">
-        <v>0.03890114132479924</v>
+        <v>-0.05631212976758172</v>
       </c>
       <c r="D16">
-        <v>0.0402971108607657</v>
+        <v>0.01906240463125585</v>
       </c>
       <c r="E16">
-        <v>-0.01048345098566632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.04027146816090132</v>
+      </c>
+      <c r="F16">
+        <v>0.0004425323331256805</v>
+      </c>
+      <c r="G16">
+        <v>0.001629761349006116</v>
+      </c>
+      <c r="H16">
+        <v>0.03778221439270722</v>
+      </c>
+      <c r="I16">
+        <v>0.03867651674037011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01099740422193919</v>
+        <v>0.004330495264076614</v>
       </c>
       <c r="C19">
-        <v>0.01520279083359845</v>
+        <v>-0.01223668147229781</v>
       </c>
       <c r="D19">
-        <v>0.02412584506492767</v>
+        <v>-0.0004529197776977224</v>
       </c>
       <c r="E19">
-        <v>0.02529027472698956</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01044235665853127</v>
+      </c>
+      <c r="F19">
+        <v>0.009144974357706337</v>
+      </c>
+      <c r="G19">
+        <v>0.004569871985615094</v>
+      </c>
+      <c r="H19">
+        <v>-0.02396165575792811</v>
+      </c>
+      <c r="I19">
+        <v>0.02538084738744385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.001234354068283537</v>
+        <v>0.002637897642385445</v>
       </c>
       <c r="C20">
-        <v>0.04089047550587593</v>
+        <v>-0.06410865728522189</v>
       </c>
       <c r="D20">
-        <v>0.06409621917156628</v>
+        <v>0.03512821818584144</v>
       </c>
       <c r="E20">
-        <v>-0.04930370032383377</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.06695429261492247</v>
+      </c>
+      <c r="F20">
+        <v>-0.009240935237974987</v>
+      </c>
+      <c r="G20">
+        <v>-0.01535703587997702</v>
+      </c>
+      <c r="H20">
+        <v>0.06392529158085299</v>
+      </c>
+      <c r="I20">
+        <v>0.06303856195305554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01846808924170806</v>
+        <v>0.009967706213849584</v>
       </c>
       <c r="C21">
-        <v>0.06073186425223036</v>
+        <v>-0.07121968531630611</v>
       </c>
       <c r="D21">
-        <v>0.08800137391459151</v>
+        <v>0.02617895111889955</v>
       </c>
       <c r="E21">
-        <v>-0.06372241265430177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.08245433902685924</v>
+      </c>
+      <c r="F21">
+        <v>-0.0659112470307593</v>
+      </c>
+      <c r="G21">
+        <v>0.103595279710237</v>
+      </c>
+      <c r="H21">
+        <v>0.006702576755823962</v>
+      </c>
+      <c r="I21">
+        <v>0.1808102506952053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.002160283315657057</v>
+        <v>-0.01085970099189871</v>
       </c>
       <c r="C22">
-        <v>0.06525738185041202</v>
+        <v>-0.1021610617286516</v>
       </c>
       <c r="D22">
-        <v>0.2058596757644847</v>
+        <v>0.1444601931481592</v>
       </c>
       <c r="E22">
-        <v>-0.2002028240202385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.1829846587924553</v>
+      </c>
+      <c r="F22">
+        <v>-0.2909690350487844</v>
+      </c>
+      <c r="G22">
+        <v>-0.1290767613003364</v>
+      </c>
+      <c r="H22">
+        <v>-0.233873327626377</v>
+      </c>
+      <c r="I22">
+        <v>-0.424280963920417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.002180826404912963</v>
+        <v>-0.007541368158921498</v>
       </c>
       <c r="C23">
-        <v>0.06656616771143996</v>
+        <v>-0.1051533267106636</v>
       </c>
       <c r="D23">
-        <v>0.2054506689959612</v>
+        <v>0.1470035882261173</v>
       </c>
       <c r="E23">
-        <v>-0.1991169781330937</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.1803676950254872</v>
+      </c>
+      <c r="F23">
+        <v>-0.2858695934438708</v>
+      </c>
+      <c r="G23">
+        <v>-0.1223666983501159</v>
+      </c>
+      <c r="H23">
+        <v>-0.2237074656534258</v>
+      </c>
+      <c r="I23">
+        <v>-0.3971747913920096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.01350900439682775</v>
+        <v>0.01321361588277247</v>
       </c>
       <c r="C24">
-        <v>0.06273778003783553</v>
+        <v>-0.07425042626962852</v>
       </c>
       <c r="D24">
-        <v>0.05402118824565051</v>
+        <v>0.01081674127271881</v>
       </c>
       <c r="E24">
-        <v>0.003128202905885254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.05485174752786926</v>
+      </c>
+      <c r="F24">
+        <v>-0.0006995511245506172</v>
+      </c>
+      <c r="G24">
+        <v>-0.004084106650571974</v>
+      </c>
+      <c r="H24">
+        <v>0.02745450450964234</v>
+      </c>
+      <c r="I24">
+        <v>0.05749044724739848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01696284143228899</v>
+        <v>0.01800438791799172</v>
       </c>
       <c r="C25">
-        <v>0.05364887687528013</v>
+        <v>-0.06737556814541072</v>
       </c>
       <c r="D25">
-        <v>0.04388134073560523</v>
+        <v>0.01428780377078099</v>
       </c>
       <c r="E25">
-        <v>-0.009542826105526807</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.04117461050631838</v>
+      </c>
+      <c r="F25">
+        <v>-0.004257344143945866</v>
+      </c>
+      <c r="G25">
+        <v>-0.008754161541727239</v>
+      </c>
+      <c r="H25">
+        <v>0.03444815077558613</v>
+      </c>
+      <c r="I25">
+        <v>0.03591344957443145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.007019219080095586</v>
+        <v>0.01730000732574638</v>
       </c>
       <c r="C26">
-        <v>0.03052168055760948</v>
+        <v>-0.05014197366738293</v>
       </c>
       <c r="D26">
-        <v>0.05225697014675197</v>
+        <v>-0.005780465975986782</v>
       </c>
       <c r="E26">
-        <v>-0.01398103656572072</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.08282876422044981</v>
+      </c>
+      <c r="F26">
+        <v>-0.0344921222142184</v>
+      </c>
+      <c r="G26">
+        <v>0.008100559938083658</v>
+      </c>
+      <c r="H26">
+        <v>0.03196809457522872</v>
+      </c>
+      <c r="I26">
+        <v>0.1252128648982583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2983712769857925</v>
+        <v>0.3108334205040503</v>
       </c>
       <c r="C28">
-        <v>-0.1424615140061952</v>
+        <v>0.1053734972276902</v>
       </c>
       <c r="D28">
-        <v>-0.04701628239468231</v>
+        <v>-0.01099931558356859</v>
       </c>
       <c r="E28">
-        <v>-0.03534051615752519</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04296137509822519</v>
+      </c>
+      <c r="F28">
+        <v>-0.06676968417351904</v>
+      </c>
+      <c r="G28">
+        <v>-0.03414617908770468</v>
+      </c>
+      <c r="H28">
+        <v>-0.02540043162610451</v>
+      </c>
+      <c r="I28">
+        <v>0.05996857176135998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.005258531166062986</v>
+        <v>0.004921689106787537</v>
       </c>
       <c r="C29">
-        <v>0.0292890327930608</v>
+        <v>-0.05856583033579723</v>
       </c>
       <c r="D29">
-        <v>0.06902944064196589</v>
+        <v>0.03131654177441916</v>
       </c>
       <c r="E29">
-        <v>-0.02675034900340457</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.1126789504447834</v>
+      </c>
+      <c r="F29">
+        <v>-0.02377602393504739</v>
+      </c>
+      <c r="G29">
+        <v>0.05480613286823876</v>
+      </c>
+      <c r="H29">
+        <v>0.09275973345036453</v>
+      </c>
+      <c r="I29">
+        <v>0.1744201263065066</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02824698738752928</v>
+        <v>0.02081031102600667</v>
       </c>
       <c r="C30">
-        <v>0.09525677246763911</v>
+        <v>-0.1203227199128499</v>
       </c>
       <c r="D30">
-        <v>0.1392670542278232</v>
+        <v>0.04706654402617776</v>
       </c>
       <c r="E30">
-        <v>-0.07317389636935949</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.1192345659198582</v>
+      </c>
+      <c r="F30">
+        <v>-0.05705405798734837</v>
+      </c>
+      <c r="G30">
+        <v>-0.01850912864359057</v>
+      </c>
+      <c r="H30">
+        <v>0.003317616266984297</v>
+      </c>
+      <c r="I30">
+        <v>0.02677571768710818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.01557015234789465</v>
+        <v>0.01073647299318431</v>
       </c>
       <c r="C31">
-        <v>0.08916839543066753</v>
+        <v>-0.09815263977445615</v>
       </c>
       <c r="D31">
-        <v>0.03201270734148728</v>
+        <v>-0.002807994857950307</v>
       </c>
       <c r="E31">
-        <v>0.02603474509878869</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.0277119343978059</v>
+      </c>
+      <c r="F31">
+        <v>-0.001987650793845035</v>
+      </c>
+      <c r="G31">
+        <v>-0.0004997654691960353</v>
+      </c>
+      <c r="H31">
+        <v>-0.0177129417664772</v>
+      </c>
+      <c r="I31">
+        <v>0.05981696691152837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02522140840780113</v>
+        <v>0.01891227064173629</v>
       </c>
       <c r="C32">
-        <v>0.0509454893528773</v>
+        <v>-0.0614410843054615</v>
       </c>
       <c r="D32">
-        <v>0.09978906924061676</v>
+        <v>0.02982620559535467</v>
       </c>
       <c r="E32">
-        <v>-0.1066908392148313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.06649873590636915</v>
+      </c>
+      <c r="F32">
+        <v>-0.1121481918332781</v>
+      </c>
+      <c r="G32">
+        <v>0.04574623031894055</v>
+      </c>
+      <c r="H32">
+        <v>0.01441864968876507</v>
+      </c>
+      <c r="I32">
+        <v>0.07990158867675345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.007128584289701571</v>
+        <v>0.009582393356468991</v>
       </c>
       <c r="C33">
-        <v>0.06179892889891758</v>
+        <v>-0.08952949087590614</v>
       </c>
       <c r="D33">
-        <v>0.08409338806097318</v>
+        <v>0.039936079426138</v>
       </c>
       <c r="E33">
-        <v>-0.01869256164811637</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.08578536193189419</v>
+      </c>
+      <c r="F33">
+        <v>-0.01535902442833883</v>
+      </c>
+      <c r="G33">
+        <v>0.001433246494454686</v>
+      </c>
+      <c r="H33">
+        <v>0.03031590719782248</v>
+      </c>
+      <c r="I33">
+        <v>0.06090339728131236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.01137645880687351</v>
+        <v>0.01332522132507755</v>
       </c>
       <c r="C34">
-        <v>0.05371162439792577</v>
+        <v>-0.05775473483782722</v>
       </c>
       <c r="D34">
-        <v>0.05926210132185777</v>
+        <v>0.0119624364610089</v>
       </c>
       <c r="E34">
-        <v>0.02926268286735143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.04427383270977728</v>
+      </c>
+      <c r="F34">
+        <v>0.02322565606773966</v>
+      </c>
+      <c r="G34">
+        <v>0.006462827825358611</v>
+      </c>
+      <c r="H34">
+        <v>0.01082101920914182</v>
+      </c>
+      <c r="I34">
+        <v>0.0248810820227944</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.001744799079099583</v>
+        <v>0.005249435297535635</v>
       </c>
       <c r="C35">
-        <v>0.002019891138010371</v>
+        <v>-0.0244263911424456</v>
       </c>
       <c r="D35">
-        <v>0.008616875661716671</v>
+        <v>0.01260240612347438</v>
       </c>
       <c r="E35">
-        <v>-0.004585518240807567</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.0407402246939862</v>
+      </c>
+      <c r="F35">
+        <v>-0.01861665225720156</v>
+      </c>
+      <c r="G35">
+        <v>0.0132474702909112</v>
+      </c>
+      <c r="H35">
+        <v>0.05485183313047205</v>
+      </c>
+      <c r="I35">
+        <v>0.09872548836633784</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006261218536428204</v>
+        <v>0.009874298778226801</v>
       </c>
       <c r="C36">
-        <v>0.02919790854311983</v>
+        <v>-0.04146936065552312</v>
       </c>
       <c r="D36">
-        <v>0.04290620906166056</v>
+        <v>0.004305088816065613</v>
       </c>
       <c r="E36">
-        <v>-0.02951419984047208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.06622830536644263</v>
+      </c>
+      <c r="F36">
+        <v>-0.03710769005983631</v>
+      </c>
+      <c r="G36">
+        <v>0.006405020995288151</v>
+      </c>
+      <c r="H36">
+        <v>0.02979900701910297</v>
+      </c>
+      <c r="I36">
+        <v>0.07198557431387059</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005080149653838721</v>
+        <v>0.006944443702671714</v>
       </c>
       <c r="C38">
-        <v>0.01547367618314016</v>
+        <v>-0.04214633052623994</v>
       </c>
       <c r="D38">
-        <v>0.06594518550377113</v>
+        <v>0.03157410616271563</v>
       </c>
       <c r="E38">
-        <v>-0.008868146515339454</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.07899826315187838</v>
+      </c>
+      <c r="F38">
+        <v>-0.01547482507957116</v>
+      </c>
+      <c r="G38">
+        <v>-0.04894925701633712</v>
+      </c>
+      <c r="H38">
+        <v>0.001061165736991478</v>
+      </c>
+      <c r="I38">
+        <v>0.08146571895154531</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01635422922623228</v>
+        <v>0.01202361691025731</v>
       </c>
       <c r="C39">
-        <v>0.07635635382272754</v>
+        <v>-0.1056870618938117</v>
       </c>
       <c r="D39">
-        <v>0.1091995411221731</v>
+        <v>0.02536843552767116</v>
       </c>
       <c r="E39">
-        <v>-0.02136563045462441</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.09723211763198401</v>
+      </c>
+      <c r="F39">
+        <v>0.007059097039973356</v>
+      </c>
+      <c r="G39">
+        <v>0.009082940653257997</v>
+      </c>
+      <c r="H39">
+        <v>0.03544381659180276</v>
+      </c>
+      <c r="I39">
+        <v>0.05600036326220966</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.006395330379594687</v>
+        <v>0.01040514585766165</v>
       </c>
       <c r="C40">
-        <v>0.019891770903115</v>
+        <v>-0.04843637998177488</v>
       </c>
       <c r="D40">
-        <v>0.09212446419290284</v>
+        <v>0.05425730515820405</v>
       </c>
       <c r="E40">
-        <v>0.006460193108202638</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.1213632524654092</v>
+      </c>
+      <c r="F40">
+        <v>0.007699684626209247</v>
+      </c>
+      <c r="G40">
+        <v>0.02420360527133684</v>
+      </c>
+      <c r="H40">
+        <v>0.03712741616384339</v>
+      </c>
+      <c r="I40">
+        <v>0.006546252645578041</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.009280739804362935</v>
+        <v>0.0177620497152241</v>
       </c>
       <c r="C41">
-        <v>0.02412000579083848</v>
+        <v>-0.04369893821787652</v>
       </c>
       <c r="D41">
-        <v>0.01893153172803201</v>
+        <v>0.01223550477424644</v>
       </c>
       <c r="E41">
-        <v>0.02451456940623387</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.02077978199340844</v>
+      </c>
+      <c r="F41">
+        <v>0.01446765262300749</v>
+      </c>
+      <c r="G41">
+        <v>-0.007296466823246005</v>
+      </c>
+      <c r="H41">
+        <v>0.005454316712800636</v>
+      </c>
+      <c r="I41">
+        <v>0.04183909335731942</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.003837723847481723</v>
+        <v>0.008457169184779826</v>
       </c>
       <c r="C43">
-        <v>0.01861053216245195</v>
+        <v>-0.03530020408291963</v>
       </c>
       <c r="D43">
-        <v>0.03683378452361161</v>
+        <v>0.01194090125414932</v>
       </c>
       <c r="E43">
-        <v>0.009697344554438495</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.04443274012642311</v>
+      </c>
+      <c r="F43">
+        <v>0.001865806009449483</v>
+      </c>
+      <c r="G43">
+        <v>-0.01457193940789851</v>
+      </c>
+      <c r="H43">
+        <v>0.01909199716678122</v>
+      </c>
+      <c r="I43">
+        <v>0.0545299434608486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01957982214923748</v>
+        <v>0.008150980520632409</v>
       </c>
       <c r="C44">
-        <v>0.05075893485032155</v>
+        <v>-0.07328409726319859</v>
       </c>
       <c r="D44">
-        <v>0.08330271586239701</v>
+        <v>0.02460447094330541</v>
       </c>
       <c r="E44">
-        <v>-0.07715382030727577</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.1022295552951977</v>
+      </c>
+      <c r="F44">
+        <v>-0.04631901883986689</v>
+      </c>
+      <c r="G44">
+        <v>-0.01036082281392408</v>
+      </c>
+      <c r="H44">
+        <v>-0.004503711960348106</v>
+      </c>
+      <c r="I44">
+        <v>0.03163484922594622</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1999,196 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.0003367957961096962</v>
+        <v>-0.0006329701956510974</v>
       </c>
       <c r="C46">
-        <v>0.03923725696140208</v>
+        <v>-0.05355283654185513</v>
       </c>
       <c r="D46">
-        <v>0.06865631807849688</v>
+        <v>0.01424804965770775</v>
       </c>
       <c r="E46">
-        <v>-0.01712791303281029</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.08631448184271777</v>
+      </c>
+      <c r="F46">
+        <v>-0.01821874134046844</v>
+      </c>
+      <c r="G46">
+        <v>0.01054072636817097</v>
+      </c>
+      <c r="H46">
+        <v>0.05857086988077512</v>
+      </c>
+      <c r="I46">
+        <v>0.1117356577397324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.04541556010165826</v>
+        <v>0.02876465561775235</v>
       </c>
       <c r="C47">
-        <v>0.1159245133152574</v>
+        <v>-0.1148214748614054</v>
       </c>
       <c r="D47">
-        <v>0.03841588639917442</v>
+        <v>-0.009427525570461221</v>
       </c>
       <c r="E47">
-        <v>0.02068057017934597</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01494897127423006</v>
+      </c>
+      <c r="F47">
+        <v>0.003130537856386636</v>
+      </c>
+      <c r="G47">
+        <v>-0.01005884395822288</v>
+      </c>
+      <c r="H47">
+        <v>0.003542739441131364</v>
+      </c>
+      <c r="I47">
+        <v>0.09000313225485737</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.008924952261556512</v>
+        <v>0.01429992761199574</v>
       </c>
       <c r="C48">
-        <v>0.0323379096558617</v>
+        <v>-0.04737214043325189</v>
       </c>
       <c r="D48">
-        <v>0.04301123190064783</v>
+        <v>-0.003851972284750515</v>
       </c>
       <c r="E48">
-        <v>-0.02227813758485193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.0752839406074135</v>
+      </c>
+      <c r="F48">
+        <v>-0.04731266267658032</v>
+      </c>
+      <c r="G48">
+        <v>0.001578215690901417</v>
+      </c>
+      <c r="H48">
+        <v>0.04022497132162801</v>
+      </c>
+      <c r="I48">
+        <v>0.1180653215081807</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002889488989682794</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.006633109045500038</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.00673928089535778</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.006426611531958353</v>
+      </c>
+      <c r="F49">
+        <v>0.01272292666687887</v>
+      </c>
+      <c r="G49">
+        <v>0.008485902953753472</v>
+      </c>
+      <c r="H49">
+        <v>0.01264276652588065</v>
+      </c>
+      <c r="I49">
+        <v>-0.00989256533251461</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.01410519184539511</v>
+        <v>0.01170665903800309</v>
       </c>
       <c r="C50">
-        <v>0.05445293143945367</v>
+        <v>-0.07232397033623325</v>
       </c>
       <c r="D50">
-        <v>0.04423756131598275</v>
+        <v>0.01594036133931653</v>
       </c>
       <c r="E50">
-        <v>-0.0003613695435172897</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.03506326691078698</v>
+      </c>
+      <c r="F50">
+        <v>-0.01469072657986747</v>
+      </c>
+      <c r="G50">
+        <v>-0.008026476013802271</v>
+      </c>
+      <c r="H50">
+        <v>-0.002616357821542582</v>
+      </c>
+      <c r="I50">
+        <v>0.05906342919169379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.005540234937772047</v>
+        <v>-0.00486884470928717</v>
       </c>
       <c r="C51">
-        <v>0.01798184994134802</v>
+        <v>-0.02966067090115999</v>
       </c>
       <c r="D51">
-        <v>0.06517657099136769</v>
+        <v>0.01461281789366722</v>
       </c>
       <c r="E51">
-        <v>-0.05700654784951955</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.05780963000943379</v>
+      </c>
+      <c r="F51">
+        <v>-0.04940229700889868</v>
+      </c>
+      <c r="G51">
+        <v>0.0163966725303073</v>
+      </c>
+      <c r="H51">
+        <v>0.008013678788611299</v>
+      </c>
+      <c r="I51">
+        <v>0.1041519266888492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.08907074439390651</v>
+        <v>0.06347054583511974</v>
       </c>
       <c r="C53">
-        <v>0.154206673207253</v>
+        <v>-0.1627468542578301</v>
       </c>
       <c r="D53">
-        <v>0.0006690439489565853</v>
+        <v>-0.04150377948671392</v>
       </c>
       <c r="E53">
-        <v>0.03401135207961024</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.04606690312732931</v>
+      </c>
+      <c r="F53">
+        <v>0.02673782315384199</v>
+      </c>
+      <c r="G53">
+        <v>-0.0144387669184781</v>
+      </c>
+      <c r="H53">
+        <v>-0.03873488800194499</v>
+      </c>
+      <c r="I53">
+        <v>0.02176972226054316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.007982924794478086</v>
+        <v>0.01326905787072791</v>
       </c>
       <c r="C54">
-        <v>0.02989981661471334</v>
+        <v>-0.05166091251211458</v>
       </c>
       <c r="D54">
-        <v>0.07741707224529881</v>
+        <v>0.04263456771576151</v>
       </c>
       <c r="E54">
-        <v>-0.01936794443850681</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.05855823561767999</v>
+      </c>
+      <c r="F54">
+        <v>-0.01310153206376645</v>
+      </c>
+      <c r="G54">
+        <v>-0.006086828612216963</v>
+      </c>
+      <c r="H54">
+        <v>0.01189030103138451</v>
+      </c>
+      <c r="I54">
+        <v>0.09063103254467854</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.06238986673140359</v>
+        <v>0.0395380709189238</v>
       </c>
       <c r="C55">
-        <v>0.1111320986365741</v>
+        <v>-0.1146421266221581</v>
       </c>
       <c r="D55">
-        <v>-0.004149273163103552</v>
+        <v>-0.05024733736139265</v>
       </c>
       <c r="E55">
-        <v>0.04934023314435523</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02331730245546516</v>
+      </c>
+      <c r="F55">
+        <v>0.03301314611835608</v>
+      </c>
+      <c r="G55">
+        <v>-0.00278835835020358</v>
+      </c>
+      <c r="H55">
+        <v>-0.04168061691423422</v>
+      </c>
+      <c r="I55">
+        <v>0.02843782237062315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.09759210426323507</v>
+        <v>0.06105059594229379</v>
       </c>
       <c r="C56">
-        <v>0.1666268120027038</v>
+        <v>-0.1827371204412685</v>
       </c>
       <c r="D56">
-        <v>0.02298357698086934</v>
+        <v>-0.05219652076990359</v>
       </c>
       <c r="E56">
-        <v>0.09449333413703731</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03664614448749156</v>
+      </c>
+      <c r="F56">
+        <v>0.06307495407564437</v>
+      </c>
+      <c r="G56">
+        <v>-0.01533253738756722</v>
+      </c>
+      <c r="H56">
+        <v>-0.121351409871785</v>
+      </c>
+      <c r="I56">
+        <v>0.02245223018748017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2347,370 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.02022856232960995</v>
+        <v>0.01060304465865253</v>
       </c>
       <c r="C58">
-        <v>0.07100649745248783</v>
+        <v>-0.1162192700282273</v>
       </c>
       <c r="D58">
-        <v>0.2191315389561745</v>
+        <v>0.129302971504291</v>
       </c>
       <c r="E58">
-        <v>-0.2382045634476288</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.1636857502342676</v>
+      </c>
+      <c r="F58">
+        <v>-0.2691283846669884</v>
+      </c>
+      <c r="G58">
+        <v>-0.06196510817054681</v>
+      </c>
+      <c r="H58">
+        <v>-0.1275154869609578</v>
+      </c>
+      <c r="I58">
+        <v>-0.04798669110582077</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.2358543542925898</v>
+        <v>0.2682097201084928</v>
       </c>
       <c r="C59">
-        <v>-0.08576859992187401</v>
+        <v>0.05492263152873487</v>
       </c>
       <c r="D59">
-        <v>0.04867934099876778</v>
+        <v>0.02085200417081343</v>
       </c>
       <c r="E59">
-        <v>-0.04611948767309166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02804807043603453</v>
+      </c>
+      <c r="F59">
+        <v>-0.03000976689130568</v>
+      </c>
+      <c r="G59">
+        <v>0.01988034258361241</v>
+      </c>
+      <c r="H59">
+        <v>0.0009796403332196241</v>
+      </c>
+      <c r="I59">
+        <v>-0.03734075388613355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1517036152215001</v>
+        <v>0.1532943749154363</v>
       </c>
       <c r="C60">
-        <v>0.1201662701301466</v>
+        <v>-0.1548606027468854</v>
       </c>
       <c r="D60">
-        <v>0.08746342584281933</v>
+        <v>0.02612280357556755</v>
       </c>
       <c r="E60">
-        <v>0.1175329830894567</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.08407486480116667</v>
+      </c>
+      <c r="F60">
+        <v>0.2276384799948135</v>
+      </c>
+      <c r="G60">
+        <v>0.09952077898926852</v>
+      </c>
+      <c r="H60">
+        <v>0.1738562923945688</v>
+      </c>
+      <c r="I60">
+        <v>-0.2819943747990089</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02167219856795102</v>
+        <v>0.01825297295886338</v>
       </c>
       <c r="C61">
-        <v>0.06391895254486679</v>
+        <v>-0.09096407149048322</v>
       </c>
       <c r="D61">
-        <v>0.07413426416862233</v>
+        <v>0.01588532129796345</v>
       </c>
       <c r="E61">
-        <v>0.006740407992801016</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.07665454091369339</v>
+      </c>
+      <c r="F61">
+        <v>0.01919169149755578</v>
+      </c>
+      <c r="G61">
+        <v>-0.003674072069635899</v>
+      </c>
+      <c r="H61">
+        <v>0.02759046256168288</v>
+      </c>
+      <c r="I61">
+        <v>0.06551591978064299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0004039041519964682</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.001069748895514248</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.0004164677126238972</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.0008366510971612676</v>
+      </c>
+      <c r="F62">
+        <v>-0.002556324020183201</v>
+      </c>
+      <c r="G62">
+        <v>-0.0002484582939857458</v>
+      </c>
+      <c r="H62">
+        <v>-0.0005439243994069776</v>
+      </c>
+      <c r="I62">
+        <v>0.003310818733906421</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.003677943714959134</v>
+        <v>0.01774105099766167</v>
       </c>
       <c r="C63">
-        <v>0.04614079944491721</v>
+        <v>-0.06368846349391505</v>
       </c>
       <c r="D63">
-        <v>0.06177395331715047</v>
+        <v>0.005739766960184854</v>
       </c>
       <c r="E63">
-        <v>-0.006088701076877413</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.07588941860569313</v>
+      </c>
+      <c r="F63">
+        <v>-0.004019364669186177</v>
+      </c>
+      <c r="G63">
+        <v>0.004316585631578287</v>
+      </c>
+      <c r="H63">
+        <v>0.02990128794319442</v>
+      </c>
+      <c r="I63">
+        <v>0.07707929997983581</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.03268508957175557</v>
+        <v>0.01766898756571037</v>
       </c>
       <c r="C64">
-        <v>0.1081321642396413</v>
+        <v>-0.1067946342083449</v>
       </c>
       <c r="D64">
-        <v>0.02188366863160564</v>
+        <v>-0.009380609344193724</v>
       </c>
       <c r="E64">
-        <v>0.01064236397275389</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02558866990161212</v>
+      </c>
+      <c r="F64">
+        <v>-0.01518779259323023</v>
+      </c>
+      <c r="G64">
+        <v>-0.01792137187362616</v>
+      </c>
+      <c r="H64">
+        <v>0.06237449846039485</v>
+      </c>
+      <c r="I64">
+        <v>-0.01488148741250686</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.01848610290272642</v>
+        <v>0.02350370104811122</v>
       </c>
       <c r="C65">
-        <v>0.03941969581208762</v>
+        <v>-0.06570621044305791</v>
       </c>
       <c r="D65">
-        <v>0.08723794632700554</v>
+        <v>0.05474387379710981</v>
       </c>
       <c r="E65">
-        <v>-0.01261623802352994</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.09702802303349976</v>
+      </c>
+      <c r="F65">
+        <v>0.002446676355103577</v>
+      </c>
+      <c r="G65">
+        <v>-0.002642321421488394</v>
+      </c>
+      <c r="H65">
+        <v>0.08591720309850302</v>
+      </c>
+      <c r="I65">
+        <v>-0.02292171247287242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02265465312514122</v>
+        <v>0.01355855388413085</v>
       </c>
       <c r="C66">
-        <v>0.09472552646582048</v>
+        <v>-0.1309135416299198</v>
       </c>
       <c r="D66">
-        <v>0.1430197871133269</v>
+        <v>0.05580371036688932</v>
       </c>
       <c r="E66">
-        <v>-0.03610931565473951</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.1075170239005068</v>
+      </c>
+      <c r="F66">
+        <v>-0.005679220295009428</v>
+      </c>
+      <c r="G66">
+        <v>0.0001413943007378313</v>
+      </c>
+      <c r="H66">
+        <v>0.005477557467955459</v>
+      </c>
+      <c r="I66">
+        <v>0.05066225990244406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.01875094285761234</v>
+        <v>0.01808114407819836</v>
       </c>
       <c r="C67">
-        <v>0.01682224021284145</v>
+        <v>-0.0410061238545681</v>
       </c>
       <c r="D67">
-        <v>0.03266662475908113</v>
+        <v>0.007881800310436175</v>
       </c>
       <c r="E67">
-        <v>0.03359697129595651</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.06291493655212836</v>
+      </c>
+      <c r="F67">
+        <v>0.02652614329561604</v>
+      </c>
+      <c r="G67">
+        <v>-0.0424466759460918</v>
+      </c>
+      <c r="H67">
+        <v>0.01528813894746422</v>
+      </c>
+      <c r="I67">
+        <v>0.06374595121459387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2316310005573135</v>
+        <v>0.2779389060364618</v>
       </c>
       <c r="C68">
-        <v>-0.1009043968221875</v>
+        <v>0.06857635337247964</v>
       </c>
       <c r="D68">
-        <v>0.01760826324764924</v>
+        <v>0.04027462777019421</v>
       </c>
       <c r="E68">
-        <v>-0.061221627677507</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01526883115669297</v>
+      </c>
+      <c r="F68">
+        <v>-0.05823597125926704</v>
+      </c>
+      <c r="G68">
+        <v>-0.01235998955265283</v>
+      </c>
+      <c r="H68">
+        <v>-0.02982137853083673</v>
+      </c>
+      <c r="I68">
+        <v>-0.02759046380641604</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.04124945896862697</v>
+        <v>0.01667159365146109</v>
       </c>
       <c r="C69">
-        <v>0.1211444536553589</v>
+        <v>-0.1047739204890486</v>
       </c>
       <c r="D69">
-        <v>0.05145141585751225</v>
+        <v>-0.02243225263086119</v>
       </c>
       <c r="E69">
-        <v>0.0392326852466556</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02666510817636021</v>
+      </c>
+      <c r="F69">
+        <v>0.01814982830154771</v>
+      </c>
+      <c r="G69">
+        <v>-0.006893817554885081</v>
+      </c>
+      <c r="H69">
+        <v>-0.003985243294160041</v>
+      </c>
+      <c r="I69">
+        <v>0.05246927187829074</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2462527268030968</v>
+        <v>0.2667666057527239</v>
       </c>
       <c r="C71">
-        <v>-0.1206926480564712</v>
+        <v>0.08327566938200441</v>
       </c>
       <c r="D71">
-        <v>0.01852394084267181</v>
+        <v>0.01783537672140199</v>
       </c>
       <c r="E71">
-        <v>-0.03177621257265414</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02055576590977752</v>
+      </c>
+      <c r="F71">
+        <v>-0.0267031940210608</v>
+      </c>
+      <c r="G71">
+        <v>-0.02689303888723282</v>
+      </c>
+      <c r="H71">
+        <v>-0.002966948540959768</v>
+      </c>
+      <c r="I71">
+        <v>0.06274519721171239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.0845630360183338</v>
+        <v>0.06459314529569023</v>
       </c>
       <c r="C72">
-        <v>0.1155185369215798</v>
+        <v>-0.1362348112271442</v>
       </c>
       <c r="D72">
-        <v>0.09726556293795531</v>
+        <v>0.01537931548059377</v>
       </c>
       <c r="E72">
-        <v>0.02580357964116221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.05544384379662788</v>
+      </c>
+      <c r="F72">
+        <v>0.0407520526732445</v>
+      </c>
+      <c r="G72">
+        <v>0.005704030289427554</v>
+      </c>
+      <c r="H72">
+        <v>0.01891429859606834</v>
+      </c>
+      <c r="I72">
+        <v>-0.02492297303719438</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1202555774094857</v>
+        <v>0.1448254332593284</v>
       </c>
       <c r="C73">
-        <v>0.09157801328981699</v>
+        <v>-0.158030961184688</v>
       </c>
       <c r="D73">
-        <v>0.1152276994786188</v>
+        <v>0.03877187812359057</v>
       </c>
       <c r="E73">
-        <v>0.1220466246053336</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.1675232563969239</v>
+      </c>
+      <c r="F73">
+        <v>0.3187334111331637</v>
+      </c>
+      <c r="G73">
+        <v>0.1192745198211955</v>
+      </c>
+      <c r="H73">
+        <v>0.301181236874445</v>
+      </c>
+      <c r="I73">
+        <v>-0.2803906698994992</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.07570147458745628</v>
+        <v>0.0503654393019141</v>
       </c>
       <c r="C74">
-        <v>0.1354730291836088</v>
+        <v>-0.1359246785285148</v>
       </c>
       <c r="D74">
-        <v>-0.0459805583780398</v>
+        <v>-0.06350714067550267</v>
       </c>
       <c r="E74">
-        <v>0.05317572990628113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.04403028791948966</v>
+      </c>
+      <c r="F74">
+        <v>0.01952857296863188</v>
+      </c>
+      <c r="G74">
+        <v>-0.01597125185183195</v>
+      </c>
+      <c r="H74">
+        <v>-0.02754470262672373</v>
+      </c>
+      <c r="I74">
+        <v>0.02246414299610184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1776482447131158</v>
+        <v>0.0984300206252982</v>
       </c>
       <c r="C75">
-        <v>0.2240659048117558</v>
+        <v>-0.2349881587941898</v>
       </c>
       <c r="D75">
-        <v>-0.02297196416400356</v>
+        <v>-0.1040035341991782</v>
       </c>
       <c r="E75">
-        <v>0.2298937046079784</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.108426168584247</v>
+      </c>
+      <c r="F75">
+        <v>0.1569915704671747</v>
+      </c>
+      <c r="G75">
+        <v>-0.1243128895772396</v>
+      </c>
+      <c r="H75">
+        <v>-0.2261354740218869</v>
+      </c>
+      <c r="I75">
+        <v>0.03648560554033396</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.09582466764928897</v>
+        <v>0.05731236858585231</v>
       </c>
       <c r="C76">
-        <v>0.1623365947262868</v>
+        <v>-0.1726058318368957</v>
       </c>
       <c r="D76">
-        <v>0.01226223087210408</v>
+        <v>-0.06318372740319184</v>
       </c>
       <c r="E76">
-        <v>0.1321674143000381</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02783575926356266</v>
+      </c>
+      <c r="F76">
+        <v>0.09460171901328208</v>
+      </c>
+      <c r="G76">
+        <v>-0.01124689834434611</v>
+      </c>
+      <c r="H76">
+        <v>-0.07874613310520173</v>
+      </c>
+      <c r="I76">
+        <v>0.05239740998614482</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.03473283692143558</v>
+        <v>0.02678880863037193</v>
       </c>
       <c r="C77">
-        <v>0.091372718184767</v>
+        <v>-0.1550384421095204</v>
       </c>
       <c r="D77">
-        <v>0.306582152709506</v>
+        <v>0.8367428365399797</v>
       </c>
       <c r="E77">
-        <v>-0.3142800275174997</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.4953190098434958</v>
+      </c>
+      <c r="F77">
+        <v>0.07357418918782635</v>
+      </c>
+      <c r="G77">
+        <v>-0.02866565173646313</v>
+      </c>
+      <c r="H77">
+        <v>0.05736057717976886</v>
+      </c>
+      <c r="I77">
+        <v>0.06512046416677872</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03203164362580358</v>
+        <v>0.0275718403410897</v>
       </c>
       <c r="C78">
-        <v>0.08833402155146537</v>
+        <v>-0.1035745863614758</v>
       </c>
       <c r="D78">
-        <v>0.1249146320785764</v>
+        <v>-0.0008060116665070168</v>
       </c>
       <c r="E78">
-        <v>-0.07308914573298135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.09982114106943249</v>
+      </c>
+      <c r="F78">
+        <v>-0.05950966653823443</v>
+      </c>
+      <c r="G78">
+        <v>0.03023586673768028</v>
+      </c>
+      <c r="H78">
+        <v>-0.08206082187813121</v>
+      </c>
+      <c r="I78">
+        <v>0.1226232754301648</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09709513175870839</v>
+        <v>0.05751610810108918</v>
       </c>
       <c r="C79">
-        <v>0.4086846479585063</v>
+        <v>-0.297846613181161</v>
       </c>
       <c r="D79">
-        <v>-0.6182458881300267</v>
+        <v>-0.2969330579398576</v>
       </c>
       <c r="E79">
-        <v>-0.5966632333835747</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.4553829867896758</v>
+      </c>
+      <c r="F79">
+        <v>-0.5486220986013662</v>
+      </c>
+      <c r="G79">
+        <v>0.07541775587727495</v>
+      </c>
+      <c r="H79">
+        <v>0.4658048001991813</v>
+      </c>
+      <c r="I79">
+        <v>-0.1329606053790418</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.002335932672755196</v>
+        <v>0.0100908656427856</v>
       </c>
       <c r="C80">
-        <v>0.05971584570820083</v>
+        <v>-0.05815691521826459</v>
       </c>
       <c r="D80">
-        <v>0.04292346848709618</v>
+        <v>-0.005220724136814236</v>
       </c>
       <c r="E80">
-        <v>0.0487503121370216</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.06828402260103598</v>
+      </c>
+      <c r="F80">
+        <v>0.02959840713619522</v>
+      </c>
+      <c r="G80">
+        <v>0.06174394474167832</v>
+      </c>
+      <c r="H80">
+        <v>0.01980257267056536</v>
+      </c>
+      <c r="I80">
+        <v>-0.0308798756730802</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.08212192602627885</v>
+        <v>0.03660944313725571</v>
       </c>
       <c r="C81">
-        <v>0.1498912165631938</v>
+        <v>-0.151457270861389</v>
       </c>
       <c r="D81">
-        <v>-0.05370029150376004</v>
+        <v>-0.07153006400200719</v>
       </c>
       <c r="E81">
-        <v>0.1014667156212029</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05991354188853288</v>
+      </c>
+      <c r="F81">
+        <v>0.01851716511848635</v>
+      </c>
+      <c r="G81">
+        <v>-0.02235685971235216</v>
+      </c>
+      <c r="H81">
+        <v>-0.07180320699675671</v>
+      </c>
+      <c r="I81">
+        <v>0.06195018584826178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.143672577041255</v>
+        <v>0.07779353686684966</v>
       </c>
       <c r="C82">
-        <v>0.213719202341711</v>
+        <v>-0.1996026253436191</v>
       </c>
       <c r="D82">
-        <v>-0.02622416769950849</v>
+        <v>-0.1006733917833325</v>
       </c>
       <c r="E82">
-        <v>0.170831378533539</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.06955932455655509</v>
+      </c>
+      <c r="F82">
+        <v>0.08921153652679036</v>
+      </c>
+      <c r="G82">
+        <v>-0.009413111734757779</v>
+      </c>
+      <c r="H82">
+        <v>-0.1239766122287152</v>
+      </c>
+      <c r="I82">
+        <v>0.08311637141148445</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.004109697176972132</v>
+        <v>0.004262930179856204</v>
       </c>
       <c r="C83">
-        <v>0.05791548377838788</v>
+        <v>-0.02034214869642029</v>
       </c>
       <c r="D83">
-        <v>0.04976328789538704</v>
+        <v>0.04102403025691027</v>
       </c>
       <c r="E83">
-        <v>-0.03693767450465604</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.04287331822784668</v>
+      </c>
+      <c r="F83">
+        <v>-0.07333702553475055</v>
+      </c>
+      <c r="G83">
+        <v>0.9066836815628759</v>
+      </c>
+      <c r="H83">
+        <v>-0.2842373227602953</v>
+      </c>
+      <c r="I83">
+        <v>-0.04822380533480351</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.001841611832471812</v>
+        <v>-0.002933138978249805</v>
       </c>
       <c r="C84">
-        <v>0.01410101783990915</v>
+        <v>-0.02839394868715106</v>
       </c>
       <c r="D84">
-        <v>0.03962028384876468</v>
+        <v>0.01198726143303305</v>
       </c>
       <c r="E84">
-        <v>-0.02905455313092917</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.05384040739631082</v>
+      </c>
+      <c r="F84">
+        <v>-0.06238410397475816</v>
+      </c>
+      <c r="G84">
+        <v>-0.05437255890151774</v>
+      </c>
+      <c r="H84">
+        <v>-0.03518617631952709</v>
+      </c>
+      <c r="I84">
+        <v>0.06980016720985516</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.09154502311834836</v>
+        <v>0.050662401699108</v>
       </c>
       <c r="C85">
-        <v>0.1828294177682659</v>
+        <v>-0.1742303045696556</v>
       </c>
       <c r="D85">
-        <v>-0.07745063445581496</v>
+        <v>-0.1183564492393601</v>
       </c>
       <c r="E85">
-        <v>0.07748932664286483</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.08918896648705765</v>
+      </c>
+      <c r="F85">
+        <v>0.02859390619450372</v>
+      </c>
+      <c r="G85">
+        <v>-0.01679663795013341</v>
+      </c>
+      <c r="H85">
+        <v>-0.07216990668453381</v>
+      </c>
+      <c r="I85">
+        <v>0.0278991531328575</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02696832879758573</v>
+        <v>0.01589216856826244</v>
       </c>
       <c r="C86">
-        <v>0.03281251611059351</v>
+        <v>-0.06135600056700328</v>
       </c>
       <c r="D86">
-        <v>0.0955767443414131</v>
+        <v>0.04820016461297968</v>
       </c>
       <c r="E86">
-        <v>-0.04955352026068932</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04183377175702604</v>
+      </c>
+      <c r="F86">
+        <v>-0.07428858916773692</v>
+      </c>
+      <c r="G86">
+        <v>-0.03709235304169822</v>
+      </c>
+      <c r="H86">
+        <v>-0.02638192422664782</v>
+      </c>
+      <c r="I86">
+        <v>0.06269832041836813</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02810756957456828</v>
+        <v>0.01686969842101396</v>
       </c>
       <c r="C87">
-        <v>0.07007931153547914</v>
+        <v>-0.09298683628248466</v>
       </c>
       <c r="D87">
-        <v>0.1414774504472139</v>
+        <v>0.07197474699519472</v>
       </c>
       <c r="E87">
-        <v>-0.09301290866468119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.09702841641500988</v>
+      </c>
+      <c r="F87">
+        <v>-0.08402431447231289</v>
+      </c>
+      <c r="G87">
+        <v>-0.01387037916713366</v>
+      </c>
+      <c r="H87">
+        <v>-0.04347225895279169</v>
+      </c>
+      <c r="I87">
+        <v>0.05075247279735248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.04084217000758748</v>
+        <v>0.03848901534027479</v>
       </c>
       <c r="C88">
-        <v>0.07490718407246437</v>
+        <v>-0.08387430478917535</v>
       </c>
       <c r="D88">
-        <v>-0.000896218786284878</v>
+        <v>-0.0103312658097427</v>
       </c>
       <c r="E88">
-        <v>0.0626698916870812</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01622631935431866</v>
+      </c>
+      <c r="F88">
+        <v>0.02826853152470513</v>
+      </c>
+      <c r="G88">
+        <v>-0.005515834621421481</v>
+      </c>
+      <c r="H88">
+        <v>0.0139137873437524</v>
+      </c>
+      <c r="I88">
+        <v>0.01861629797771053</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.405883311520885</v>
+        <v>0.4048596234241005</v>
       </c>
       <c r="C89">
-        <v>-0.2235503920323722</v>
+        <v>0.1524371514332337</v>
       </c>
       <c r="D89">
-        <v>-0.02527588021921856</v>
+        <v>0.02028510965337513</v>
       </c>
       <c r="E89">
-        <v>-0.08061735591300548</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.008865449031411761</v>
+      </c>
+      <c r="F89">
+        <v>-0.1026398138530082</v>
+      </c>
+      <c r="G89">
+        <v>0.08023327007072613</v>
+      </c>
+      <c r="H89">
+        <v>-0.08335470851895443</v>
+      </c>
+      <c r="I89">
+        <v>0.07437829576153811</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2992652285318173</v>
+        <v>0.3186126008605329</v>
       </c>
       <c r="C90">
-        <v>-0.1595106077114433</v>
+        <v>0.1006424718347183</v>
       </c>
       <c r="D90">
-        <v>0.06418115476370616</v>
+        <v>0.03338480167808341</v>
       </c>
       <c r="E90">
-        <v>-0.05988547407428693</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.04320801106400687</v>
+      </c>
+      <c r="F90">
+        <v>-0.01906620142378964</v>
+      </c>
+      <c r="G90">
+        <v>-0.01187900222236284</v>
+      </c>
+      <c r="H90">
+        <v>-0.02795709423172851</v>
+      </c>
+      <c r="I90">
+        <v>-0.007123407688045558</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1078566168046185</v>
+        <v>0.06785813023493042</v>
       </c>
       <c r="C91">
-        <v>0.2086665818363461</v>
+        <v>-0.1826985125029713</v>
       </c>
       <c r="D91">
-        <v>-0.0830069074401432</v>
+        <v>-0.08428758309712185</v>
       </c>
       <c r="E91">
-        <v>0.05050992757510189</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.1157960708471357</v>
+      </c>
+      <c r="F91">
+        <v>0.01426101200822834</v>
+      </c>
+      <c r="G91">
+        <v>0.02328751011131141</v>
+      </c>
+      <c r="H91">
+        <v>-0.04800356088049645</v>
+      </c>
+      <c r="I91">
+        <v>0.01355887696942816</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.3158072781531163</v>
+        <v>0.343153494890172</v>
       </c>
       <c r="C92">
-        <v>-0.1758106477345015</v>
+        <v>0.1316818226571352</v>
       </c>
       <c r="D92">
-        <v>-0.02424969998488967</v>
+        <v>0.02927248549402121</v>
       </c>
       <c r="E92">
-        <v>-0.08821754178909727</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.01926091688363181</v>
+      </c>
+      <c r="F92">
+        <v>-0.07615590639735884</v>
+      </c>
+      <c r="G92">
+        <v>-0.09174221249635478</v>
+      </c>
+      <c r="H92">
+        <v>0.03527950100223579</v>
+      </c>
+      <c r="I92">
+        <v>0.01699766709055783</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.3115181090306526</v>
+        <v>0.3224645474419563</v>
       </c>
       <c r="C93">
-        <v>-0.1650505004881689</v>
+        <v>0.1222619544219529</v>
       </c>
       <c r="D93">
-        <v>-0.04751368397170759</v>
+        <v>-0.02306017926860213</v>
       </c>
       <c r="E93">
-        <v>-0.01772775316609805</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01865055460935985</v>
+      </c>
+      <c r="F93">
+        <v>-0.03582388200934215</v>
+      </c>
+      <c r="G93">
+        <v>-0.01344571120004113</v>
+      </c>
+      <c r="H93">
+        <v>0.003758145148227258</v>
+      </c>
+      <c r="I93">
+        <v>0.03681724576593107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1821922888202246</v>
+        <v>0.1167898831490252</v>
       </c>
       <c r="C94">
-        <v>0.253229572027824</v>
+        <v>-0.2519957788785318</v>
       </c>
       <c r="D94">
-        <v>-0.08080004659961749</v>
+        <v>-0.1614417151719675</v>
       </c>
       <c r="E94">
-        <v>0.3101020560172562</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.2059961036661154</v>
+      </c>
+      <c r="F94">
+        <v>0.1903247158172588</v>
+      </c>
+      <c r="G94">
+        <v>-0.1035796684111832</v>
+      </c>
+      <c r="H94">
+        <v>-0.427360078357679</v>
+      </c>
+      <c r="I94">
+        <v>-0.06199947279732079</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.04065011474425412</v>
+        <v>0.03875548734649893</v>
       </c>
       <c r="C95">
-        <v>0.04217162295210054</v>
+        <v>-0.09123466369323774</v>
       </c>
       <c r="D95">
-        <v>0.06145645644870584</v>
+        <v>0.04706947542951825</v>
       </c>
       <c r="E95">
-        <v>0.0669161060596173</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07526444069032505</v>
+      </c>
+      <c r="F95">
+        <v>0.1017971378036229</v>
+      </c>
+      <c r="G95">
+        <v>-0.0376266505695192</v>
+      </c>
+      <c r="H95">
+        <v>0.04991647053100811</v>
+      </c>
+      <c r="I95">
+        <v>0.09383772011423559</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002615826153764689</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.002448434191434266</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.01664243395312611</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.001288463526242818</v>
+      </c>
+      <c r="F97">
+        <v>0.009436267831419341</v>
+      </c>
+      <c r="G97">
+        <v>-0.01726912917122094</v>
+      </c>
+      <c r="H97">
+        <v>0.0005041062249710975</v>
+      </c>
+      <c r="I97">
+        <v>-0.000701460409259902</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1086031139986818</v>
+        <v>0.1307092792781267</v>
       </c>
       <c r="C98">
-        <v>0.09325676695936941</v>
+        <v>-0.1422864017353389</v>
       </c>
       <c r="D98">
-        <v>0.1154584721763984</v>
+        <v>0.01570334162166597</v>
       </c>
       <c r="E98">
-        <v>0.06870615021464223</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1410065164312908</v>
+      </c>
+      <c r="F98">
+        <v>0.2465156784342376</v>
+      </c>
+      <c r="G98">
+        <v>0.07649060416607352</v>
+      </c>
+      <c r="H98">
+        <v>0.2615209601938868</v>
+      </c>
+      <c r="I98">
+        <v>-0.3204439934872079</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.006337346537201706</v>
+        <v>0.005046177516146491</v>
       </c>
       <c r="C101">
-        <v>0.02839457788809566</v>
+        <v>-0.05732755822374793</v>
       </c>
       <c r="D101">
-        <v>0.06867433703634172</v>
+        <v>0.03157457804605601</v>
       </c>
       <c r="E101">
-        <v>-0.02771089424079156</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.1113928498691224</v>
+      </c>
+      <c r="F101">
+        <v>-0.02382183006630642</v>
+      </c>
+      <c r="G101">
+        <v>0.05432463473767171</v>
+      </c>
+      <c r="H101">
+        <v>0.09162555360187222</v>
+      </c>
+      <c r="I101">
+        <v>0.1733132523950704</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.0675402089753097</v>
+        <v>0.02506623767326188</v>
       </c>
       <c r="C102">
-        <v>0.119877384763447</v>
+        <v>-0.08658693028733774</v>
       </c>
       <c r="D102">
-        <v>0.005803308285838304</v>
+        <v>-0.04217248242523428</v>
       </c>
       <c r="E102">
-        <v>0.08596653250918598</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.04628716278411375</v>
+      </c>
+      <c r="F102">
+        <v>0.03985682573283959</v>
+      </c>
+      <c r="G102">
+        <v>0.008523059560176844</v>
+      </c>
+      <c r="H102">
+        <v>-0.06639418095718659</v>
+      </c>
+      <c r="I102">
+        <v>0.01420770231683166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
